--- a/biology/Botanique/Brachystegia_cynometroides/Brachystegia_cynometroides.xlsx
+++ b/biology/Botanique/Brachystegia_cynometroides/Brachystegia_cynometroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachystegia cynometroides est un arbre à taille moyenne à assez grande de la famille des Caesalpiniaceae (Leguminosae - Caesalpinioideae), peu réparti. On le trouve principalement dans l’ouest du Cameroun et en Guinée équatoriale - Bioko. L’arbre pousse généralement jusqu’à 200 m d’altitude, dans les régions à températures moyennes de 23,5-25 °C[1].  Son nom commun est naga[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachystegia cynometroides est un arbre à taille moyenne à assez grande de la famille des Caesalpiniaceae (Leguminosae - Caesalpinioideae), peu réparti. On le trouve principalement dans l’ouest du Cameroun et en Guinée équatoriale - Bioko. L’arbre pousse généralement jusqu’à 200 m d’altitude, dans les régions à températures moyennes de 23,5-25 °C.  Son nom commun est naga.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’arbre atteint 35 à 40 m de haut, son fût, généralement courbé, tordu, voire sinueux, est non ramifié sur 15 m, avec un diamètre atteignant 180 cm[1].
-L’écorce est lisse à rugueuse en surface. Le bois de cœur est de couleur brun jaunâtre ou brun rougeâtre. Le grain est moyen à grossier. Les rameaux sont glabres[1].
-Les feuilles sont alternes[1].
-Les fleurs, de petite taille, sont bisexuées. Le fruit est une gousse aplatie, faisant  20-25 cm sur 8-10 cm, et contient 2-4 grandes graines discoïdes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arbre atteint 35 à 40 m de haut, son fût, généralement courbé, tordu, voire sinueux, est non ramifié sur 15 m, avec un diamètre atteignant 180 cm.
+L’écorce est lisse à rugueuse en surface. Le bois de cœur est de couleur brun jaunâtre ou brun rougeâtre. Le grain est moyen à grossier. Les rameaux sont glabres.
+Les feuilles sont alternes.
+Les fleurs, de petite taille, sont bisexuées. Le fruit est une gousse aplatie, faisant  20-25 cm sur 8-10 cm, et contient 2-4 grandes graines discoïdes.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois est utilisé pour la construction, les boiseries intérieures, la construction nautique, notamment[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est utilisé pour la construction, les boiseries intérieures, la construction nautique, notamment. 
 </t>
         </is>
       </c>
